--- a/BackTest/2019-10-21 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-21 BackTest ETZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6.900000000000048</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>15.99999999999981</v>
+      </c>
       <c r="L12" t="n">
         <v>82.00999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>7.000000000000043</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>22.44897959183646</v>
+      </c>
       <c r="L13" t="n">
         <v>82.09999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>7.30000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>15.38461538461524</v>
+      </c>
       <c r="L14" t="n">
         <v>82.17999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>7.500000000000043</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20.75471698113214</v>
+      </c>
       <c r="L15" t="n">
         <v>82.27999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>7.700000000000045</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.81481481481471</v>
+      </c>
       <c r="L16" t="n">
         <v>82.36999999999998</v>
       </c>
